--- a/biology/Botanique/Euroschinus_aoupiniensis/Euroschinus_aoupiniensis.xlsx
+++ b/biology/Botanique/Euroschinus_aoupiniensis/Euroschinus_aoupiniensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euroschinus aoupiniensis est une espèce de plantes de la famille des Anacardiaceae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,9 +551,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est endémique de Nouvelle-Calédonie[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est endémique de Nouvelle-Calédonie.
 </t>
         </is>
       </c>
@@ -568,9 +584,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Euroschinus aoupiniensis a été décrite en 1994 par le botaniste français Michel Hoff (d) (1951-)[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Euroschinus aoupiniensis a été décrite en 1994 par le botaniste français Michel Hoff (d) (1951-),.
 </t>
         </is>
       </c>
@@ -599,9 +617,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, composée de[Quoi ?] et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à sa localité type, le mont Aoupinié (en)[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, composée de[Quoi ?] et du suffixe latin -ensis, « qui vit dans, qui habite », fait référence à sa localité type, le mont Aoupinié (en). 
 </t>
         </is>
       </c>
@@ -630,7 +650,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Michel Hoff, « Deux espèces nouvelles et révision nomenclaturale des Euroschinus (Anacardiaceae) de Nouvelle-Calédonie », Botanica Helvetica, Birkhäuser Verlag, vol. 104,‎ 1994, p. 123-140 (ISSN 0253-1453 et 1420-9063, DOI 10.5169/SEALS-71621, lire en ligne)</t>
         </is>
